--- a/input.xlsx
+++ b/input.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\duane\dev\nwb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF9A9654-7466-4AE3-9146-6325AC7386E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74E41CB-80C4-453E-9EB2-9E9E52981241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{9E53CA07-8B31-4905-8D42-E3674C6874F6}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{9E53CA07-8B31-4905-8D42-E3674C6874F6}"/>
   </bookViews>
   <sheets>
     <sheet name="auto" sheetId="1" r:id="rId1"/>
+    <sheet name="electrode_mappings" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1265" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="222">
   <si>
     <t>san4_run06_optogen_N30_400au_5ms_ISI5s_centerofarray_awake_191107_150118.rhd</t>
   </si>
@@ -624,6 +625,84 @@
   </si>
   <si>
     <t>electrode_recordings</t>
+  </si>
+  <si>
+    <t>device_channel</t>
+  </si>
+  <si>
+    <t>intan_channel</t>
+  </si>
+  <si>
+    <t>E06</t>
+  </si>
+  <si>
+    <t>E05</t>
+  </si>
+  <si>
+    <t>E04</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>E01</t>
+  </si>
+  <si>
+    <t>E00</t>
+  </si>
+  <si>
+    <t>D63</t>
+  </si>
+  <si>
+    <t>D59</t>
+  </si>
+  <si>
+    <t>D51</t>
+  </si>
+  <si>
+    <t>D43</t>
+  </si>
+  <si>
+    <t>D35</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>C33</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C00</t>
+  </si>
+  <si>
+    <t>B51</t>
   </si>
 </sst>
 </file>
@@ -1031,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F51979-EEEC-4605-BEA1-C7BCE3BD8C48}">
   <dimension ref="A1:AO46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6347,4 +6426,219 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B881EFE-0B72-4B0A-B24D-48BA8A9D7092}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>263</v>
+      </c>
+      <c r="B2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>262</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>261</v>
+      </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>260</v>
+      </c>
+      <c r="B5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>259</v>
+      </c>
+      <c r="B6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>258</v>
+      </c>
+      <c r="B7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>257</v>
+      </c>
+      <c r="B8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>256</v>
+      </c>
+      <c r="B9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>252</v>
+      </c>
+      <c r="B10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>244</v>
+      </c>
+      <c r="B11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>236</v>
+      </c>
+      <c r="B12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>228</v>
+      </c>
+      <c r="B13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>220</v>
+      </c>
+      <c r="B14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>212</v>
+      </c>
+      <c r="B15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>204</v>
+      </c>
+      <c r="B16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>196</v>
+      </c>
+      <c r="B17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>162</v>
+      </c>
+      <c r="B19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>154</v>
+      </c>
+      <c r="B20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>146</v>
+      </c>
+      <c r="B21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>130</v>
+      </c>
+      <c r="B23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>116</v>
+      </c>
+      <c r="B25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>